--- a/output.xlsx
+++ b/output.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Video ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Enhanced Story</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Full Response</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LndqdvbHyQU</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lily and the Giant Spider</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{'candidates': [{'content': {'parts': [{'text': '## 1. Enhanced and Recreated Story: Lily and the Giant Spider\n\nLily loved her family.  Her older brother, Tom, always built amazing Lego castles with her. Her younger sister, Mia, giggled at Lily\'s silly jokes.  Even their scruffy dog, Buster, seemed to understand her every whisper. But Lily had a secret fear: spiders.  Big spiders, small spiders, hairy spiders – any spider sent shivers down her spine.\n\nWhenever a spider appeared, Lily would shriek, "Spider!" and the family would spring into action. Tom would bravely capture it in a jar, Mia would clap her hands with delight (from a safe distance!), and Mom and Dad would whisk the spider outside to freedom.  Even Buster would bark excitedly, tail wagging, as if he were a spider-hunting hero.\n\nOne sunny afternoon, Lily decided to play a trick.  She was in her room, building a magnificent sandcastle (indoors, of course!).  Suddenly, she yelled, "Spider!"  Tom dropped his building blocks, Mia stopped drawing, and Mom and Dad raced into the room. Buster barked frantically, ready to defend Lily from the imaginary arachnid.\n\nLily burst into laughter.  "Just kidding!" she squealed.\n\nTom sighed. "Lily, that wasn\'t funny," he said, a little disappointed. Mia pouted. Even Buster seemed to sense Lily\'s mischief.  Mom and Dad exchanged a weary glance.  "One more time, Lily, and we won\'t believe you next time," warned Dad.\n\nThe next day, the "spider" prank repeated itself.  This time, the family’s response was less enthusiastic.  They were starting to get tired of the game.\n\nThat evening, Lily was taking a bath.  She loved her rubber duckies, but as she reached for one, she saw it – a HUGE, hairy spider nestled in the corner of the tub.  Her heart thumped.  She yelled, "Spider!"  But this time, silence.  She yelled again, louder, "SPIDER!"  Still nothing.\n\nPanic swelled inside her.  She looked for Tom, Mia, Mom, and Dad, but they were nowhere to be seen.  Buster was asleep by the fireplace, oblivious.  Tears welled up in Lily\'s eyes. She was truly, genuinely afraid.\n\nFinally, she scrambled out of the tub, sobbing, and ran to find her family.  "Didn\'t you hear me?" she cried.  "I yelled \'Spider\'!"\n\nTom, Mia, Mom, and Dad all admitted they heard her.  "But we didn\'t believe you," Mom explained gently.\n\nLily learned a valuable lesson that night.  Lying, even as a joke, can have serious consequences.  People might not believe you when you truly need their help. From that day on, Lily promised to always tell the truth.  Her family knew they could always count on her honesty, and she knew they would always be there for her, even when facing a giant, hairy spider.\n\nThe End.\n\n\n## 2. YouTube Title:  Lily\'s Big Spider Lie! (A Fun Moral Story for Kids)\n\n\n## 3. YouTube Description:\n\nJoin Lily and her family in this fun and engaging story about honesty!  Lily loves playing pranks, but her jokes about spiders lead to a surprising lesson about truthfulness.  Perfect for family viewing, this short story teaches children the importance of honesty and the consequences of lying. Subscribe for more fun kids\' stories!  Don\'t forget to share with your friends!\n\n\n## 4. YouTube Tags:\n\nkids stories, bedtime stories, children\'s stories, short stories for kids, family stories, moral stories, honesty stories, spider stories, kids videos, family videos, educational videos, bedtime videos, children\'s books, animated stories, cartoon stories, kids animation, family fun, story time, learn about honesty, truthfulness, consequences of lying.\n'}], 'role': 'model'}, 'finishReason': 'STOP', 'avgLogprobs': -0.36263762987577}], 'usageMetadata': {'promptTokenCount': 953, 'candidatesTokenCount': 832, 'totalTokenCount': 1785}, 'modelVersion': 'gemini-1.5-flash'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>o_4X56WGlZw</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The Little Fox Who Learned to Share</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{'candidates': [{'content': {'parts': [{'text': '## 1. Enhanced and Recreated Story: The Little Fox Who Learned to Share\n\nOnce upon a time, nestled in a sun-drenched meadow beside a whispering river, lived a young fox named Rusty. Rusty had fur the color of autumn leaves, a bushy tail tipped with white, and eyes that sparkled with curiosity.  He loved the meadow, filled with bunnies hopping playfully, playful squirrels chattering in the trees, and majestic deer gracefully grazing. Yet, Rusty often felt alone.\n\nIt wasn\'t that he *wanted* to be alone. Rusty longed for friends, but he had a secret: he couldn\'t share.  If he found a patch of plump, juicy strawberries, or a sunny spot perfect for napping, he\'d hoard it all, clutching his treasures tightly. "What if they take it all?" he\'d worry.\n\nThe other animals noticed.  Slowly, the playful hops and chirps around Rusty faded.  One afternoon, Rusty discovered the most magnificent blackberry bush he\'d ever seen.  Blackberries, plump and glistening, hung heavy on the branches.  He started to fill his little basket, his heart brimming with excitement.\n\nJust as he was about to feast, a tiny voice squeaked, "Hello!"\n\nRusty looked up to see Pip, a cheerful little field mouse with bright, inquisitive eyes. "Those berries look delicious," Pip chirped. "Would you share some with me?"\n\nRusty’s ears drooped. "Share? But...what if I don\'t have enough?"\n\nPip smiled. "I understand," she said gently. "But sometimes, sharing what we have brings us something even better."\n\nRusty hesitated. He really wanted those berries all to himself.  He mumbled, "No, thank you," and began to eat.  But something was wrong. The berries tasted… bland.  He looked at the other animals playing happily together and felt a pang of sadness.  His tummy was full, but his heart felt empty.\n\nThe next day, Rusty saw Hazel, a kind deer, struggling to carry a large pile of sweet apples.  "Need help?" Rusty blurted out, surprising himself.\n\nHazel\'s eyes widened. "Oh, yes please! That would be wonderful!"\n\nTogether, they carried the apples to Hazel\'s cozy den under a willow tree. Rusty\'s paws were tired, but Hazel exclaimed, "You\'re a lifesaver, Rusty!  Would you like to join me for lunch? I have apple slices and delicious wild honey."\n\nRusty, to his surprise, smiled. "Sure, I\'d love that!"\n\nThey shared a simple lunch, laughing and talking.  Rusty realized that the joy of Hazel\'s company and the sweetness of the shared apples tasted far better than any berry he\'d ever eaten alone.\n\nFrom that day on, Rusty began to change. He started offering to share – a sunny spot, a juicy worm, even his favorite napping log.  It wasn\'t easy at first.  He still worried, but every time he shared, something wonderful happened. Pip taught him how to build a magnificent mouse-sized house, and Hazel showed him how to make a delicious apple crumble.  Rusty wasn\'t lonely anymore.\n\nOne evening, nestled amongst his new friends under a starlit sky, Rusty felt his heart swell with warmth.  He understood: sharing didn\'t mean having less; it meant gaining so much more.\n\n\n## 2. YouTube Title: The Little Fox Who Learned to Share: A Sweet Story About Friendship!\n\n## 3. YouTube Description:\n\nJoin Rusty the fox on a heartwarming adventure as he learns the true meaning of sharing!  This sweet and delightful story teaches children the importance of friendship and generosity. Perfect for bedtime, family time, or any moment that needs a touch of kindness. Subscribe for more enchanting stories for kids of all ages! Share the joy of reading with your friends and family!\n\n## 4. YouTube Tags:\n\nkids stories, bedtime stories, children\'s stories, short stories for kids, family stories, moral stories for kids, sharing is caring, friendship stories, animal stories, fox stories, youtube kids, kids videos, family friendly, educational videos for kids, children\'s books, bedtime reading, story time, kids entertainment, moral lessons for kids, positive messages for kids.\n'}], 'role': 'model'}, 'finishReason': 'STOP', 'avgLogprobs': -0.2918451022257847}], 'usageMetadata': {'promptTokenCount': 932, 'candidatesTokenCount': 904, 'totalTokenCount': 1836}, 'modelVersion': 'gemini-1.5-flash'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tE2c8bQic-g</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The Squirrel and the Butterfly</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{'candidates': [{'content': {'parts': [{'text': '## 1. Enhanced and Recreated Story:  The Squirrel and the Butterfly\n\nDeep in the Whispering Woods lived a busy squirrel named Pip and a playful butterfly named Flutterby. Pip loved to collect acorns.  Every sunny morning, he\'d scamper up the tallest oak trees, his tiny claws gripping the bark as he searched for the plumpest, most perfect acorns. He’d fill his cheek pouches, then race back to his cozy nest nestled high in the branches, carefully storing his winter supply.  Pip knew that a long, cold winter was coming, and he wanted to be prepared.\n\nFlutterby, on the other hand, spent her days flitting from flower to flower, her wings a kaleidoscope of colors.  She danced on sunbeams, chased the wind, and sipped nectar from every blossom she found. "Why work so hard, Pip?" she\'d ask, her voice like the tinkling of tiny bells. "Come play with me!  There\'s so much fun to be had!"\n\nPip would smile, his cheeks still full of acorns, and wave his bushy tail. "There’ll be plenty of time for fun later," he’d chirp. "Winter\'s coming, and we need to be ready."\n\nAs the days grew shorter and the leaves turned golden, Pip\'s nest overflowed with acorns.  He had enough to last him through the coldest months.  He felt a warm glow of satisfaction knowing he was prepared.  Flutterby, meanwhile, continued her carefree life, convinced that winter was still far away.  "Plenty of time," she\'d murmur, sipping nectar from a late-blooming daisy.\n\nOne chilly evening, a sudden snowstorm blanketed the Whispering Woods.  The wind howled, and the temperature plummeted. Pip, snug in his warm nest, munched on his acorns, cozy and content.  But Flutterby was caught unprepared. Her usual sunny spots were covered in snow, and the flowers were frozen.  She was cold, hungry, and scared.\n\nShivering, Flutterby spotted Pip\'s nest high in the oak tree.  With a heavy heart, she flew towards it and gently tapped on the entrance.  Pip peered out, surprised to see Flutterby looking so forlorn.\n\n"Flutterby!" he exclaimed. "What\'s wrong?"\n\nTears welled up in Flutterby\'s eyes. "I… I didn\'t prepare," she whispered. "I\'m cold, hungry, and I have nowhere to go."\n\nPip, seeing her distress, immediately invited her in.  "Of course you can stay," he said kindly.  "We have plenty of room and plenty of acorns."\n\nFlutterby spent the rest of the winter in Pip\'s warm nest.  She learned the importance of preparation and the comfort of having a friend.  When spring finally arrived, the woods were alive with birdsong and blooming flowers.  Flutterby thanked Pip for his kindness and generosity.\n\nFrom that day on, Flutterby still loved to play and dance amongst the flowers, but she also helped Pip gather acorns and learned to store food for the winter. They became the best of friends, balancing work and play, showing everyone in the Whispering Woods that being prepared and having friends makes life happier and safer, no matter the season.\n\n\n## 2. YouTube Title:  Pip the Squirrel &amp; Flutterby\'s Winter Adventure!  A Sweet Bedtime Story\n\n\n## 3. YouTube Description:\n\nJoin Pip the busy squirrel and Flutterby the playful butterfly in this heartwarming tale of friendship and preparation!  Learn about the importance of hard work and planning for the future in this enchanting story perfect for bedtime or any time! This sweet story is suitable for children, teens and parents alike. Subscribe for more magical stories and don\'t forget to share with your friends and family!\n\n\n## 4. YouTube Tags:\n\nkids stories, bedtime stories, children\'s stories, family stories, short stories for kids, moral stories, educational stories, squirrel stories, butterfly stories, winter stories, friendship stories, preparation stories, bedtime reading, kids videos, children\'s videos, family videos, animated stories, storytime, kids entertainment,  moral of the story, values, character development\n'}], 'role': 'model'}, 'finishReason': 'STOP', 'avgLogprobs': -0.29529012505087415}], 'usageMetadata': {'promptTokenCount': 1045, 'candidatesTokenCount': 883, 'totalTokenCount': 1928}, 'modelVersion': 'gemini-1.5-flash'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>w3hq3iJePQ0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Whispering Woods Race</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{'candidates': [{'content': {'parts': [{'text': '## 1. Enhanced and Recreated Story: The Whispering Woods Race\n\nOnce upon a time, in the Whispering Woods, lived a cheerful community of animals. Every year, they held the Whispering Woods Race, a fun competition with a prize of the legendary Golden Acorn – the juiciest, tastiest acorn in the whole forest!  This year, two animals stood out:  Zippy the Squirrel, known for his incredible speed and showmanship, and Luna the Tortoise, known for her quiet determination and unwavering patience.\n\nZippy loved the spotlight.  "This race will be a zip!" he’d boast, his bushy tail twitching with excitement.  He envisioned a glorious victory, a shower of acorn-shaped confetti, and endless applause.\n\nLuna, on the other hand, wasn\'t focused on speed. She\'d trained diligently, understanding that steady progress was key.  She believed in taking one careful step at a time, focusing on the finish line rather than the immediate thrill of the race.\n\nThe race began!  Zippy zoomed off like a blur, a brown streak against the vibrant green foliage.  He glanced back – no one was even close!  He chuckled, "This is too easy!"  He spotted a patch of delicious wild berries and decided a quick snack wouldn\'t hurt.\n\nMeanwhile, Luna continued her steady pace. She greeted the friendly bumblebees buzzing past, waved to the playful rabbits, and even helped a lost ladybug find its way.  She never rushed; her focus remained fixed on the Golden Acorn.\n\nZippy, having finished his berries, stumbled upon a lively gathering of woodland creatures having a musical jam session.  "I\'m amazing at dancing too!" he thought, joining in with impressive acrobatic moves.  He danced and danced, captivated by the cheering and applause, completely losing track of time.\n\nOther racers also faced tempting distractions.  Hopper the Frog got sidetracked by a sparkling stream, spending precious time admiring the water lilies.  Rusty the Raccoon found a collection of shiny pebbles and couldn\'t resist collecting them.  Rosie the Rabbit, spotting a field of clover, decided a quick snack break was in order.\n\nAs the sun began to set, casting long shadows across the woods, Zippy suddenly remembered the race!  "Oh no!" he cried, sprinting back towards the finish line.  He ran as fast as his little legs could carry him, but it was too late.\n\nLuna, with a determined smile, was already crossing the finish line, her shell gleaming in the golden light. The cheers of the woodland creatures echoed through the trees.  Zippy skidded to a halt, breathless but smiling. "Wow, Luna, you did it!"\n\nLuna nodded shyly.  "Sometimes," she said softly, "slow and steady wins the race."\n\nOne by one, the other animals finished. Hopper, Rusty, and Rosie all admitted their distractions, learning a valuable lesson about focus.  Though Luna won the Golden Acorn, everyone celebrated, realizing that the true victory was the fun and friendship they shared along the way.  In the Whispering Woods, they learned that the race wasn’t just about speed, but about perseverance, good sportsmanship, and enjoying the journey.\n\n\n## 2. YouTube Title:  The Whispering Woods Race: Slow and Steady Wins the Day!\n\n## 3. YouTube Description:\n\nJoin Luna the Tortoise and Zippy the Squirrel in the exciting Whispering Woods Race!  This heartwarming story teaches kids the importance of perseverance, focusing on goals, and enjoying the journey.  Perfect for family movie night or bedtime! Subscribe for more enchanting children\'s stories and share the magic with your friends!\n\n## 4. YouTube Tags:\n\nkids stories, bedtime stories, children\'s stories, family stories, short stories for kids, educational stories, moral stories, tortoise and hare story, animal stories, woodland creatures, children\'s videos, family videos, YouTube kids, kids animation,  slow and steady, perseverance, determination, friendship, goal setting, positive messages for kids,  kids learning videos,  storytime,  read aloud.\n'}], 'role': 'model'}, 'finishReason': 'STOP', 'avgLogprobs': -0.35558815269203453}], 'usageMetadata': {'promptTokenCount': 979, 'candidatesTokenCount': 858, 'totalTokenCount': 1837}, 'modelVersion': 'gemini-1.5-flash'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>v9q-wa6GuH0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lily and the Magical Melon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{'candidates': [{'content': {'parts': [{'text': '## 1. Enhanced and Recreated Story: Lily and the Magical Melon\n\nLily the lamb skipped through Sunny Meadow, her fluffy tail bouncing.  She heard a delightful sound – *crunch, crunch, crunch* – the sound of someone enjoying a juicy watermelon!  "Watermelons are my absolute favorite!" bleated Lily.  She followed the sound, passing Farmer Giles\'s grumpy goat, Grumbles, chewing on some tough weeds, and playful piglets, Pip and Squeak, rolling in a mud puddle.  She even saw Beatrice the bunny nibbling clover near the babbling brook.\n\nFinally, she reached the old oak tree where Grandma Bess, a wise old sheep with wool as white as snow, was happily munching on a giant watermelon.  "Grandma Bess!" cried Lily, "That watermelon looks delicious!  Can I have a piece?"\n\nGrandma Bess chuckled, her kind eyes twinkling. "Of course, Lily! But only if you say the magic word."\n\nLily\'s ears drooped.  She didn\'t know the magic word!  "Oh dear," she whispered.  She decided to ask for help.\n\nFirst, she bounced over to Grumbles the goat.  "Grumbles," she asked, "What\'s the magic word?"\n\nGrumbles grumbled, "Maa!"\n\nLily hopped back to Grandma Bess. "Maa!" she bleated hopefully.  Grandma Bess smiled gently but shook her head. "Not quite, dear Lily."\n\nNext, Lily scurried to Pip and Squeak. "Pip and Squeak," she asked, "Do you know the magic word?"\n\nThe piglets oinked in unison, "Oink!"\n\nLily raced back to Grandma Bess, excited.  "Oink!" she squealed, but Grandma Bess just chuckled again. "That\'s not it, my sweet lamb."\n\nDisappointed, Lily went to Beatrice the bunny.  "Beatrice," she asked, "What\'s the magic word?"\n\nBeatrice twitched her nose and replied, "Flop!"\n\nLily zipped back to Grandma Bess, her hopes fading. "Flop!" she exclaimed.  Grandma Bess\'s laughter echoed through Sunny Meadow. "Oh, Lily, you\'re so close!  It\'s not \'flop\' either."\n\nOnly a tiny sliver of watermelon remained.  Lily looked at Grandma Bess, her eyes welling up. "I don\'t know the magic word, Grandma Bess," she sighed, "but… could I please have just a tiny bit?"\n\nGrandma Bess\'s smile widened. "Why, Lily, that\'s perfect!  \'Please\' is the magic word!"\n\nLily\'s face lit up!  Grandma Bess gave her the last delicious piece of watermelon.  *Crunch, crunch, crunch!*  Lily savored every bite.\n\nFrom that day on, Lily always remembered to use her manners.  She learned that "please" and "thank you" are truly magical words that open doors and bring happiness to everyone. And sometimes, the sweetest treats come from showing kindness and good manners!\n\n\n## 2. YouTube Title:  Lily and the Magical Watermelon: A Sweet Story About Manners!\n\n## 3. YouTube Description:\n\nJoin Lily the lamb on a fun-filled adventure as she searches for the "magic word" to get a delicious piece of watermelon! This heartwarming story teaches children the importance of good manners and kindness. Perfect for bedtime or any time family fun!  Subscribe for more enchanting stories and don\'t forget to share this video with your friends! #kidstories #bedtimestories #childrensbooks #familystories #manners #shortstoriesforkids #educationalstories #moralstories\n\n## 4. YouTube Tags:\n\nkids stories, bedtime stories, children\'s books, family stories, short stories for kids, educational stories, moral stories, manners for kids, good manners, please and thank you, lamb story, watermelon story, animal stories, kids videos, family videos, children\'s videos, youtube kids,  bedtime stories for kids,  stories for toddlers, preschool stories, kindergarten stories,  cute animal stories,  positive stories for kids,  moral lessons for kids.\n'}], 'role': 'model'}, 'finishReason': 'STOP', 'avgLogprobs': -0.2690717263755226}], 'usageMetadata': {'promptTokenCount': 841, 'candidatesTokenCount': 867, 'totalTokenCount': 1708}, 'modelVersion': 'gemini-1.5-flash'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>em2wnQ8qd0I</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daisy the Dappled Deer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{'candidates': [{'content': {'parts': [{'text': '## 1. Enhanced and Recreated Story:  Daisy the Dappled Deer\n\nDaisy the dappled deer wasn\'t like the other deer in Whispering Woods. While they were all shades of brown and fawn, Daisy was a vibrant, shimmering turquoise.  Her mother, Willow, loved her unique coloring. "You\'re special, Daisy," she\'d say, nuzzling her.  But the other deer whispered behind her back, calling her "Azure" and excluding her from their games.\n\nDaisy tried to join in, but the other fawns would snort and run away. "You\'re not one of us!" they\'d cry. "You\'re too…different!"  It hurt Daisy\'s feelings. She longed to belong, to feel accepted for who she was.  She’d often spend her days quietly grazing near her mother, her heart heavy.\n\nOne day, a terrible storm hit Whispering Woods, causing a massive mudslide that blocked the only path to the meadow where the deer grazed. The meadow was their main source of food, and without it, the entire herd faced starvation.  The oldest deer, Elder Oak, called a meeting. Fear hung heavy in the air.\n\nThe other deer panicked.  Hazel, the most popular deer, suggested they find a way around the mudslide.  But Elder Oak shook his head. "It\'s too dangerous.  The path is blocked, and the storm damaged many trees."\n\nSuddenly, Daisy remembered an old, almost forgotten trail her mother had mentioned – a narrow path that wound through a thicket of thorny bushes. It was overgrown and rarely used, but it might lead to the meadow.\n\nDaisy, timid but determined, stepped forward.  "I know a path," she said, her voice barely a whisper. "It\'s risky, but it might work."  The other deer scoffed. "A *turquoise* deer showing *us* the way?" they muttered.\n\nBut Elder Oak, sensing desperation, decided to give it a try.  Following Daisy\'s lead, the herd carefully navigated the overgrown trail. It was difficult, the thorns scratching their coats, but Daisy, small and agile, found her way, leading them safely to the other side of the mudslide.\n\nThe deer burst out into the meadow, relieved and overjoyed.  They were safe, thanks to Daisy.  Hazel, humbled, approached Daisy.  "We were wrong, Daisy," she said. "You\'re brave and clever.  Your difference… it actually saved us."\n\nThe other deer echoed Hazel’s words.  They realized that Daisy’s unique color, once seen as a flaw, was a sign of her strength and resilience.  From that day on, Daisy was no longer excluded. She was celebrated for her courage and her kindness.  The meadow was bountiful, the herd was safe, and Daisy, the dappled turquoise deer, finally felt like she truly belonged. The end.\n\n\n## 2. YouTube Title:  Daisy\'s Dazzling Rescue! A Magical Story for Kids!\n\n## 3. YouTube Description:\n\nJoin Daisy the dappled deer on an amazing adventure!  This heartwarming children\'s story teaches kids about embracing differences and the importance of kindness. Watch as Daisy, a uniquely coloured deer, overcomes prejudice and saves her herd from a perilous situation. Perfect for family viewing!  Don\'t forget to subscribe and share the magic! #kidsstories #bedtimestories #childrensbooks #familystories #shortstoriesforkids #moralstories #animalstories #daisydappleddeer\n\n## 4. YouTube Tags:\n\nkids stories, bedtime stories, children\'s books, family stories, short stories for kids, educational stories, moral stories, animal stories, deer stories, kindness stories, overcoming adversity, friendship stories,  differences, acceptance, bravery, courage, family values, YouTube Kids, children\'s videos,  kids videos, short animated stories, animated stories for kids, daisydappleddeer,  turquoise deer\n'}], 'role': 'model'}, 'finishReason': 'STOP', 'avgLogprobs': -0.4431889062849605}], 'usageMetadata': {'promptTokenCount': 1262, 'candidatesTokenCount': 838, 'totalTokenCount': 2100}, 'modelVersion': 'gemini-1.5-flash'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>